--- a/Proporceje kart.xlsx
+++ b/Proporceje kart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakubpernal/Programowanie/Strony i aplikacje/BARBER/components/card-section/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BF7D4C-0F99-914B-A9A3-ADE33B386FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F248D75-29A2-3443-B753-203DCC9B3DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17220" yWindow="960" windowWidth="16840" windowHeight="19740" xr2:uid="{8C21C899-66F7-CF46-939B-53C66862CF9C}"/>
   </bookViews>
@@ -115,11 +115,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -455,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DC976D-4E90-9B47-BABF-5F4967776B80}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -482,49 +483,62 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>380</v>
-      </c>
-      <c r="C2" s="2">
-        <v>510</v>
+      <c r="B2" s="3">
+        <f>D2*100%/F2</f>
+        <v>342</v>
+      </c>
+      <c r="C2" s="3">
+        <f>E2*100%/G2</f>
+        <v>459</v>
       </c>
       <c r="D2">
-        <v>360</v>
+        <f>360-I2</f>
+        <v>324</v>
       </c>
       <c r="E2">
-        <v>472</v>
+        <f>472-J2</f>
+        <v>424.8</v>
       </c>
       <c r="F2" s="1">
-        <f>D2*100%/B2</f>
         <v>0.94736842105263153</v>
       </c>
       <c r="G2" s="1">
-        <f>E2*100%/C2</f>
         <v>0.92549019607843142</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>36</v>
+      </c>
+      <c r="J2">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3">
         <f>D3*100%/F3</f>
-        <v>369.44444444444446</v>
+        <v>332.5</v>
       </c>
       <c r="C3" s="3">
         <f>E3*100%/G3</f>
-        <v>495.95338983050846</v>
+        <v>446.3580508474576</v>
       </c>
       <c r="D3">
-        <v>350</v>
+        <f>350-I3</f>
+        <v>315</v>
       </c>
       <c r="E3">
-        <v>459</v>
+        <f>459-J3</f>
+        <v>413.1</v>
       </c>
       <c r="F3" s="1">
         <v>0.94736842105263153</v>
@@ -532,24 +546,32 @@
       <c r="G3" s="1">
         <v>0.92549019607843142</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <v>45.900000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3">
         <f>D4*100%/F4</f>
-        <v>337.77777777777777</v>
+        <v>304</v>
       </c>
       <c r="C4" s="3">
         <f>E4*100%/G4</f>
-        <v>453.81355932203388</v>
+        <v>408.43220338983048</v>
       </c>
       <c r="D4">
-        <v>320</v>
+        <f>320-I4</f>
+        <v>288</v>
       </c>
       <c r="E4">
-        <v>420</v>
+        <f>420-J4</f>
+        <v>378</v>
       </c>
       <c r="F4" s="1">
         <v>0.94736842105263153</v>
@@ -557,18 +579,24 @@
       <c r="G4" s="1">
         <v>0.92549019607843142</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>32</v>
+      </c>
+      <c r="J4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E6">
         <f>E2*100%/D2</f>
         <v>1.3111111111111111</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D7">
         <v>340</v>
       </c>
@@ -576,11 +604,35 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>320</v>
       </c>
       <c r="E8">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>360</v>
+      </c>
+      <c r="E11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>350</v>
+      </c>
+      <c r="E12">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>320</v>
+      </c>
+      <c r="E13">
         <v>420</v>
       </c>
     </row>
